--- a/biology/Médecine/Gerhard_Wagner/Gerhard_Wagner.xlsx
+++ b/biology/Médecine/Gerhard_Wagner/Gerhard_Wagner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerhard Wagner (Neu-Heiduk, 18 août 1888 – Munich, 25 mars 1939) était un médecin nazi qui occupa de hautes fonctions sous le Troisième Reich, dont celle de Reichsärzteführer, et qui participa à l'élaboration des lois de Nuremberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un médecin professeur de chirurgie, Wagner effectuait ses études en médecine à Munich. Au cours de la Première Guerre mondiale, il sert comme médecin et est décoré de la croix de fer de première classe.
 À partir de 1919, Wagner exerce comme médecin à Munich ; entre 1921 et 1923, il est membre des corps francs von Epp and Oberland. De par ses origines silésiennes, il devient l'un des dirigeants des associations de la communauté allemande de Haute-Silésie (Deutschtumsverbände Oberschlesiens). Il rejoint le parti nazi en mai 1929.
